--- a/notebooks/dblp-scholar-results.xlsx
+++ b/notebooks/dblp-scholar-results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="5320" windowWidth="25100" windowHeight="10800" tabRatio="500"/>
+    <workbookView xWindow="39460" yWindow="-8840" windowWidth="28440" windowHeight="15020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="51">
   <si>
     <t>Vocabulary</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>20 / 0.25 / 0.25</t>
+  </si>
+  <si>
+    <t>malstm</t>
+  </si>
+  <si>
+    <t>50 / 0.5 / 0.5</t>
+  </si>
+  <si>
+    <t>malstm-t</t>
   </si>
 </sst>
 </file>
@@ -221,8 +230,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="109">
+  <cellStyleXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -336,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="109">
+  <cellStyles count="143">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -391,6 +434,23 @@
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -445,6 +505,23 @@
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -720,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1579,6 +1656,52 @@
         <v>0.98102</v>
       </c>
     </row>
+    <row r="30" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>49</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.97877000000000003</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0.77137999999999995</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.86278999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>49</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.97196000000000005</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0.77322999999999997</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.86128000000000005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
